--- a/odds/BP- Loudoun 2025 2025 Betting Odds.xlsx
+++ b/odds/BP- Loudoun 2025 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="63">
   <si>
     <t>Record</t>
   </si>
@@ -60,12 +60,12 @@
     <t>Hannah's Hail Mary</t>
   </si>
   <si>
+    <t>Sporty Jess</t>
+  </si>
+  <si>
     <t>Jeffrey's not so Scary Team</t>
   </si>
   <si>
-    <t>Sporty Jess</t>
-  </si>
-  <si>
     <t>8-3</t>
   </si>
   <si>
@@ -87,28 +87,34 @@
     <t>100.0%</t>
   </si>
   <si>
-    <t>98.0%</t>
-  </si>
-  <si>
-    <t>95.5%</t>
-  </si>
-  <si>
-    <t>93.5%</t>
-  </si>
-  <si>
-    <t>59.8%</t>
-  </si>
-  <si>
-    <t>20.2%</t>
-  </si>
-  <si>
-    <t>15.9%</t>
-  </si>
-  <si>
-    <t>13.2%</t>
-  </si>
-  <si>
-    <t>3.9%</t>
+    <t>99.9%</t>
+  </si>
+  <si>
+    <t>97.7%</t>
+  </si>
+  <si>
+    <t>96.4%</t>
+  </si>
+  <si>
+    <t>93.0%</t>
+  </si>
+  <si>
+    <t>64.3%</t>
+  </si>
+  <si>
+    <t>18.8%</t>
+  </si>
+  <si>
+    <t>15.6%</t>
+  </si>
+  <si>
+    <t>11.5%</t>
+  </si>
+  <si>
+    <t>2.7%</t>
+  </si>
+  <si>
+    <t>0.1%</t>
   </si>
   <si>
     <t>0.0%</t>
@@ -117,28 +123,34 @@
     <t>-∞</t>
   </si>
   <si>
-    <t>-4900</t>
-  </si>
-  <si>
-    <t>-2122</t>
-  </si>
-  <si>
-    <t>-1438</t>
-  </si>
-  <si>
-    <t>-149</t>
-  </si>
-  <si>
-    <t>+395</t>
-  </si>
-  <si>
-    <t>+529</t>
-  </si>
-  <si>
-    <t>+658</t>
-  </si>
-  <si>
-    <t>+2464</t>
+    <t>-99900</t>
+  </si>
+  <si>
+    <t>-4248</t>
+  </si>
+  <si>
+    <t>-2678</t>
+  </si>
+  <si>
+    <t>-1329</t>
+  </si>
+  <si>
+    <t>-180</t>
+  </si>
+  <si>
+    <t>+432</t>
+  </si>
+  <si>
+    <t>+541</t>
+  </si>
+  <si>
+    <t>+770</t>
+  </si>
+  <si>
+    <t>+3604</t>
+  </si>
+  <si>
+    <t>+99900</t>
   </si>
   <si>
     <t>+∞</t>
@@ -147,43 +159,49 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>61.8%</t>
-  </si>
-  <si>
-    <t>20.6%</t>
-  </si>
-  <si>
-    <t>5.9%</t>
+    <t>58.9%</t>
+  </si>
+  <si>
+    <t>23.4%</t>
+  </si>
+  <si>
+    <t>6.2%</t>
   </si>
   <si>
     <t>5.8%</t>
   </si>
   <si>
-    <t>-162</t>
-  </si>
-  <si>
-    <t>+385</t>
-  </si>
-  <si>
-    <t>+1595</t>
+    <t>5.6%</t>
+  </si>
+  <si>
+    <t>-143</t>
+  </si>
+  <si>
+    <t>+327</t>
+  </si>
+  <si>
+    <t>+1513</t>
   </si>
   <si>
     <t>+1624</t>
   </si>
   <si>
-    <t>79.2%</t>
-  </si>
-  <si>
-    <t>19.9%</t>
+    <t>+1686</t>
+  </si>
+  <si>
+    <t>80.8%</t>
+  </si>
+  <si>
+    <t>18.2%</t>
   </si>
   <si>
     <t>0.9%</t>
   </si>
   <si>
-    <t>-381</t>
-  </si>
-  <si>
-    <t>+403</t>
+    <t>-421</t>
+  </si>
+  <si>
+    <t>+449</t>
   </si>
   <si>
     <t>+11011</t>
@@ -575,7 +593,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -586,10 +604,10 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -600,10 +618,10 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -614,10 +632,10 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -628,10 +646,10 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -642,10 +660,10 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -656,10 +674,10 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -670,10 +688,10 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -684,10 +702,10 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -698,10 +716,10 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -712,10 +730,10 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -726,10 +744,10 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -753,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -767,10 +785,10 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -781,38 +799,38 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -823,10 +841,10 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -837,38 +855,38 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -879,10 +897,10 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -893,10 +911,10 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -907,10 +925,10 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -921,10 +939,10 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -948,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -956,30 +974,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -990,66 +1008,66 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1060,10 +1078,10 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1074,10 +1092,10 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1088,10 +1106,10 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1102,10 +1120,10 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1116,10 +1134,10 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/odds/BP- Loudoun 2025 2025 Betting Odds.xlsx
+++ b/odds/BP- Loudoun 2025 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="57">
   <si>
     <t>Record</t>
   </si>
@@ -33,85 +33,82 @@
     <t>Foxes Hopefuls</t>
   </si>
   <si>
+    <t>Bad, Bad, A.J. Brown</t>
+  </si>
+  <si>
     <t>At Risk of CTE</t>
   </si>
   <si>
-    <t>Bad, Bad, A.J. Brown</t>
+    <t>Trash Panda Express</t>
   </si>
   <si>
     <t>Yangblood Bravesheart</t>
   </si>
   <si>
-    <t>Trash Panda Express</t>
-  </si>
-  <si>
     <t>Fear the Turtle</t>
   </si>
   <si>
+    <t>Team Schottler</t>
+  </si>
+  <si>
     <t>Derk Prerscert</t>
   </si>
   <si>
     <t>Tracey Time</t>
   </si>
   <si>
-    <t>Team Schottler</t>
-  </si>
-  <si>
     <t>Hannah's Hail Mary</t>
   </si>
   <si>
+    <t>Jeffrey's not so Scary Team</t>
+  </si>
+  <si>
     <t>Sporty Jess</t>
   </si>
   <si>
-    <t>Jeffrey's not so Scary Team</t>
-  </si>
-  <si>
-    <t>8-3</t>
-  </si>
-  <si>
-    <t>7-4</t>
-  </si>
-  <si>
-    <t>6-5</t>
-  </si>
-  <si>
-    <t>5-6</t>
-  </si>
-  <si>
-    <t>4-7</t>
-  </si>
-  <si>
-    <t>2-9</t>
+    <t>9-3</t>
+  </si>
+  <si>
+    <t>8-4</t>
+  </si>
+  <si>
+    <t>7-5</t>
+  </si>
+  <si>
+    <t>6-6</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>4-8</t>
+  </si>
+  <si>
+    <t>3-9</t>
+  </si>
+  <si>
+    <t>2-10</t>
   </si>
   <si>
     <t>100.0%</t>
   </si>
   <si>
-    <t>99.9%</t>
-  </si>
-  <si>
-    <t>97.7%</t>
-  </si>
-  <si>
-    <t>96.4%</t>
-  </si>
-  <si>
-    <t>93.0%</t>
-  </si>
-  <si>
-    <t>64.3%</t>
-  </si>
-  <si>
-    <t>18.8%</t>
-  </si>
-  <si>
-    <t>15.6%</t>
-  </si>
-  <si>
-    <t>11.5%</t>
-  </si>
-  <si>
-    <t>2.7%</t>
+    <t>98.7%</t>
+  </si>
+  <si>
+    <t>88.8%</t>
+  </si>
+  <si>
+    <t>60.2%</t>
+  </si>
+  <si>
+    <t>34.0%</t>
+  </si>
+  <si>
+    <t>9.9%</t>
+  </si>
+  <si>
+    <t>8.3%</t>
   </si>
   <si>
     <t>0.1%</t>
@@ -123,31 +120,22 @@
     <t>-∞</t>
   </si>
   <si>
-    <t>-99900</t>
-  </si>
-  <si>
-    <t>-4248</t>
-  </si>
-  <si>
-    <t>-2678</t>
-  </si>
-  <si>
-    <t>-1329</t>
-  </si>
-  <si>
-    <t>-180</t>
-  </si>
-  <si>
-    <t>+432</t>
-  </si>
-  <si>
-    <t>+541</t>
-  </si>
-  <si>
-    <t>+770</t>
-  </si>
-  <si>
-    <t>+3604</t>
+    <t>-7592</t>
+  </si>
+  <si>
+    <t>-793</t>
+  </si>
+  <si>
+    <t>-151</t>
+  </si>
+  <si>
+    <t>+194</t>
+  </si>
+  <si>
+    <t>+910</t>
+  </si>
+  <si>
+    <t>+1105</t>
   </si>
   <si>
     <t>+99900</t>
@@ -159,52 +147,46 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>58.9%</t>
-  </si>
-  <si>
-    <t>23.4%</t>
-  </si>
-  <si>
-    <t>6.2%</t>
-  </si>
-  <si>
-    <t>5.8%</t>
-  </si>
-  <si>
-    <t>5.6%</t>
-  </si>
-  <si>
-    <t>-143</t>
-  </si>
-  <si>
-    <t>+327</t>
-  </si>
-  <si>
-    <t>+1513</t>
-  </si>
-  <si>
-    <t>+1624</t>
-  </si>
-  <si>
-    <t>+1686</t>
-  </si>
-  <si>
-    <t>80.8%</t>
-  </si>
-  <si>
-    <t>18.2%</t>
-  </si>
-  <si>
-    <t>0.9%</t>
-  </si>
-  <si>
-    <t>-421</t>
-  </si>
-  <si>
-    <t>+449</t>
-  </si>
-  <si>
-    <t>+11011</t>
+    <t>66.0%</t>
+  </si>
+  <si>
+    <t>25.1%</t>
+  </si>
+  <si>
+    <t>4.5%</t>
+  </si>
+  <si>
+    <t>4.4%</t>
+  </si>
+  <si>
+    <t>-194</t>
+  </si>
+  <si>
+    <t>+298</t>
+  </si>
+  <si>
+    <t>+2122</t>
+  </si>
+  <si>
+    <t>+2173</t>
+  </si>
+  <si>
+    <t>61.5%</t>
+  </si>
+  <si>
+    <t>37.4%</t>
+  </si>
+  <si>
+    <t>1.1%</t>
+  </si>
+  <si>
+    <t>-160</t>
+  </si>
+  <si>
+    <t>+167</t>
+  </si>
+  <si>
+    <t>+8991</t>
   </si>
 </sst>
 </file>
@@ -590,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -601,13 +583,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -615,13 +597,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -635,7 +617,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -643,13 +625,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -657,13 +639,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -677,7 +659,7 @@
         <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -685,13 +667,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -699,13 +681,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -713,13 +695,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -727,13 +709,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -741,13 +723,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -771,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -785,80 +767,80 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
         <v>47</v>
-      </c>
-      <c r="D2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
       <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
         <v>48</v>
-      </c>
-      <c r="D3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
         <v>49</v>
-      </c>
-      <c r="D4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
         <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -866,69 +848,69 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -936,13 +918,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -966,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -974,30 +956,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1005,18 +987,18 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -1025,119 +1007,119 @@
         <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/odds/BP- Loudoun 2025 2025 Betting Odds.xlsx
+++ b/odds/BP- Loudoun 2025 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="55">
   <si>
     <t>Record</t>
   </si>
@@ -39,79 +39,76 @@
     <t>At Risk of CTE</t>
   </si>
   <si>
+    <t>Yangblood Bravesheart</t>
+  </si>
+  <si>
     <t>Trash Panda Express</t>
   </si>
   <si>
-    <t>Yangblood Bravesheart</t>
+    <t>Team Schottler</t>
   </si>
   <si>
     <t>Fear the Turtle</t>
   </si>
   <si>
-    <t>Team Schottler</t>
-  </si>
-  <si>
     <t>Derk Prerscert</t>
   </si>
   <si>
     <t>Tracey Time</t>
   </si>
   <si>
+    <t>Jeffrey's not so Scary Team</t>
+  </si>
+  <si>
+    <t>Sporty Jess</t>
+  </si>
+  <si>
     <t>Hannah's Hail Mary</t>
   </si>
   <si>
-    <t>Jeffrey's not so Scary Team</t>
-  </si>
-  <si>
-    <t>Sporty Jess</t>
-  </si>
-  <si>
-    <t>9-3</t>
-  </si>
-  <si>
-    <t>8-4</t>
-  </si>
-  <si>
-    <t>7-5</t>
-  </si>
-  <si>
-    <t>6-6</t>
-  </si>
-  <si>
-    <t>5-7</t>
-  </si>
-  <si>
-    <t>4-8</t>
-  </si>
-  <si>
-    <t>3-9</t>
-  </si>
-  <si>
-    <t>2-10</t>
+    <t>10-3</t>
+  </si>
+  <si>
+    <t>9-4</t>
+  </si>
+  <si>
+    <t>8-5</t>
+  </si>
+  <si>
+    <t>7-6</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>5-8</t>
+  </si>
+  <si>
+    <t>3-10</t>
+  </si>
+  <si>
+    <t>4-9</t>
   </si>
   <si>
     <t>100.0%</t>
   </si>
   <si>
-    <t>98.7%</t>
-  </si>
-  <si>
-    <t>88.8%</t>
-  </si>
-  <si>
-    <t>60.2%</t>
-  </si>
-  <si>
-    <t>34.0%</t>
-  </si>
-  <si>
-    <t>9.9%</t>
-  </si>
-  <si>
-    <t>8.3%</t>
-  </si>
-  <si>
-    <t>0.1%</t>
+    <t>97.9%</t>
+  </si>
+  <si>
+    <t>97.2%</t>
+  </si>
+  <si>
+    <t>58.2%</t>
+  </si>
+  <si>
+    <t>31.9%</t>
+  </si>
+  <si>
+    <t>14.6%</t>
+  </si>
+  <si>
+    <t>0.2%</t>
   </si>
   <si>
     <t>0.0%</t>
@@ -120,25 +117,22 @@
     <t>-∞</t>
   </si>
   <si>
-    <t>-7592</t>
-  </si>
-  <si>
-    <t>-793</t>
-  </si>
-  <si>
-    <t>-151</t>
-  </si>
-  <si>
-    <t>+194</t>
-  </si>
-  <si>
-    <t>+910</t>
-  </si>
-  <si>
-    <t>+1105</t>
-  </si>
-  <si>
-    <t>+99900</t>
+    <t>-4662</t>
+  </si>
+  <si>
+    <t>-3471</t>
+  </si>
+  <si>
+    <t>-139</t>
+  </si>
+  <si>
+    <t>+213</t>
+  </si>
+  <si>
+    <t>+585</t>
+  </si>
+  <si>
+    <t>+49900</t>
   </si>
   <si>
     <t>+∞</t>
@@ -147,46 +141,46 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>66.0%</t>
-  </si>
-  <si>
-    <t>25.1%</t>
-  </si>
-  <si>
-    <t>4.5%</t>
-  </si>
-  <si>
-    <t>4.4%</t>
-  </si>
-  <si>
-    <t>-194</t>
-  </si>
-  <si>
-    <t>+298</t>
-  </si>
-  <si>
-    <t>+2122</t>
-  </si>
-  <si>
-    <t>+2173</t>
-  </si>
-  <si>
-    <t>61.5%</t>
-  </si>
-  <si>
-    <t>37.4%</t>
-  </si>
-  <si>
-    <t>1.1%</t>
-  </si>
-  <si>
-    <t>-160</t>
-  </si>
-  <si>
-    <t>+167</t>
-  </si>
-  <si>
-    <t>+8991</t>
+    <t>82.2%</t>
+  </si>
+  <si>
+    <t>10.3%</t>
+  </si>
+  <si>
+    <t>7.0%</t>
+  </si>
+  <si>
+    <t>0.3%</t>
+  </si>
+  <si>
+    <t>-462</t>
+  </si>
+  <si>
+    <t>+871</t>
+  </si>
+  <si>
+    <t>+1329</t>
+  </si>
+  <si>
+    <t>+33233</t>
+  </si>
+  <si>
+    <t>77.4%</t>
+  </si>
+  <si>
+    <t>20.2%</t>
+  </si>
+  <si>
+    <t>2.4%</t>
+  </si>
+  <si>
+    <t>-342</t>
+  </si>
+  <si>
+    <t>+395</t>
+  </si>
+  <si>
+    <t>+4067</t>
   </si>
 </sst>
 </file>
@@ -575,7 +569,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -589,7 +583,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -597,13 +591,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -611,13 +605,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -631,7 +625,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -645,7 +639,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -653,13 +647,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -673,7 +667,7 @@
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -681,13 +675,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -695,13 +689,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -712,10 +706,10 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -726,10 +720,10 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -753,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -767,10 +761,10 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -778,125 +772,125 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -904,27 +898,27 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -948,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -956,58 +950,58 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1018,38 +1012,38 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1060,24 +1054,24 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1088,10 +1082,10 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1099,13 +1093,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1113,13 +1107,13 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/odds/BP- Loudoun 2025 2025 Betting Odds.xlsx
+++ b/odds/BP- Loudoun 2025 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="35">
   <si>
     <t>Record</t>
   </si>
@@ -33,154 +33,94 @@
     <t>Foxes Hopefuls</t>
   </si>
   <si>
+    <t>Trash Panda Express</t>
+  </si>
+  <si>
+    <t>Team Schottler</t>
+  </si>
+  <si>
+    <t>Yangblood Bravesheart</t>
+  </si>
+  <si>
     <t>Bad, Bad, A.J. Brown</t>
   </si>
   <si>
     <t>At Risk of CTE</t>
   </si>
   <si>
-    <t>Yangblood Bravesheart</t>
-  </si>
-  <si>
-    <t>Trash Panda Express</t>
-  </si>
-  <si>
-    <t>Team Schottler</t>
-  </si>
-  <si>
     <t>Fear the Turtle</t>
   </si>
   <si>
+    <t>Jeffrey's not so Scary Team</t>
+  </si>
+  <si>
+    <t>Sporty Jess</t>
+  </si>
+  <si>
     <t>Derk Prerscert</t>
   </si>
   <si>
     <t>Tracey Time</t>
   </si>
   <si>
-    <t>Jeffrey's not so Scary Team</t>
-  </si>
-  <si>
-    <t>Sporty Jess</t>
-  </si>
-  <si>
     <t>Hannah's Hail Mary</t>
   </si>
   <si>
-    <t>10-3</t>
-  </si>
-  <si>
-    <t>9-4</t>
-  </si>
-  <si>
-    <t>8-5</t>
-  </si>
-  <si>
-    <t>7-6</t>
-  </si>
-  <si>
-    <t>6-7</t>
-  </si>
-  <si>
-    <t>5-8</t>
-  </si>
-  <si>
-    <t>3-10</t>
-  </si>
-  <si>
-    <t>4-9</t>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>8-5-1</t>
+  </si>
+  <si>
+    <t>7-6-1</t>
+  </si>
+  <si>
+    <t>9-5</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>3-11</t>
+  </si>
+  <si>
+    <t>4-10</t>
+  </si>
+  <si>
+    <t>5-9</t>
   </si>
   <si>
     <t>100.0%</t>
   </si>
   <si>
-    <t>97.9%</t>
-  </si>
-  <si>
-    <t>97.2%</t>
-  </si>
-  <si>
-    <t>58.2%</t>
-  </si>
-  <si>
-    <t>31.9%</t>
-  </si>
-  <si>
-    <t>14.6%</t>
-  </si>
-  <si>
-    <t>0.2%</t>
-  </si>
-  <si>
     <t>0.0%</t>
   </si>
   <si>
     <t>-∞</t>
   </si>
   <si>
-    <t>-4662</t>
-  </si>
-  <si>
-    <t>-3471</t>
-  </si>
-  <si>
-    <t>-139</t>
-  </si>
-  <si>
-    <t>+213</t>
-  </si>
-  <si>
-    <t>+585</t>
-  </si>
-  <si>
-    <t>+49900</t>
-  </si>
-  <si>
     <t>+∞</t>
   </si>
   <si>
     <t>Probability</t>
   </si>
   <si>
-    <t>82.2%</t>
-  </si>
-  <si>
-    <t>10.3%</t>
-  </si>
-  <si>
-    <t>7.0%</t>
-  </si>
-  <si>
-    <t>0.3%</t>
-  </si>
-  <si>
-    <t>-462</t>
-  </si>
-  <si>
-    <t>+871</t>
-  </si>
-  <si>
-    <t>+1329</t>
-  </si>
-  <si>
-    <t>+33233</t>
-  </si>
-  <si>
-    <t>77.4%</t>
-  </si>
-  <si>
-    <t>20.2%</t>
-  </si>
-  <si>
-    <t>2.4%</t>
-  </si>
-  <si>
-    <t>-342</t>
-  </si>
-  <si>
-    <t>+395</t>
-  </si>
-  <si>
-    <t>+4067</t>
+    <t>41.0%</t>
+  </si>
+  <si>
+    <t>39.2%</t>
+  </si>
+  <si>
+    <t>19.8%</t>
+  </si>
+  <si>
+    <t>+144</t>
+  </si>
+  <si>
+    <t>+155</t>
+  </si>
+  <si>
+    <t>+405</t>
   </si>
 </sst>
 </file>
@@ -569,7 +509,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -583,7 +523,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -591,13 +531,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -605,13 +545,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -619,13 +559,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -633,13 +573,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -650,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -661,13 +601,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -675,13 +615,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -689,13 +629,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -703,13 +643,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -720,10 +660,10 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -747,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -755,156 +695,156 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -915,10 +855,10 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -942,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -950,170 +890,170 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/odds/BP- Loudoun 2025 2025 Betting Odds.xlsx
+++ b/odds/BP- Loudoun 2025 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="30">
   <si>
     <t>Record</t>
   </si>
@@ -66,28 +66,31 @@
     <t>Hannah's Hail Mary</t>
   </si>
   <si>
-    <t>10-4</t>
-  </si>
-  <si>
-    <t>8-5-1</t>
-  </si>
-  <si>
-    <t>7-6-1</t>
-  </si>
-  <si>
-    <t>9-5</t>
-  </si>
-  <si>
-    <t>6-8</t>
-  </si>
-  <si>
-    <t>3-11</t>
-  </si>
-  <si>
-    <t>4-10</t>
-  </si>
-  <si>
-    <t>5-9</t>
+    <t>11-4</t>
+  </si>
+  <si>
+    <t>8-6-1</t>
+  </si>
+  <si>
+    <t>7-7-1</t>
+  </si>
+  <si>
+    <t>9-6</t>
+  </si>
+  <si>
+    <t>10-5</t>
+  </si>
+  <si>
+    <t>6-9</t>
+  </si>
+  <si>
+    <t>3-12</t>
+  </si>
+  <si>
+    <t>5-10</t>
+  </si>
+  <si>
+    <t>7-8</t>
   </si>
   <si>
     <t>100.0%</t>
@@ -103,24 +106,6 @@
   </si>
   <si>
     <t>Probability</t>
-  </si>
-  <si>
-    <t>41.0%</t>
-  </si>
-  <si>
-    <t>39.2%</t>
-  </si>
-  <si>
-    <t>19.8%</t>
-  </si>
-  <si>
-    <t>+144</t>
-  </si>
-  <si>
-    <t>+155</t>
-  </si>
-  <si>
-    <t>+405</t>
   </si>
 </sst>
 </file>
@@ -506,10 +491,10 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -520,10 +505,10 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -534,10 +519,10 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -548,10 +533,10 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -559,13 +544,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -576,10 +561,10 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -587,13 +572,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -601,13 +586,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -615,13 +600,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -629,13 +614,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -643,13 +628,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -657,13 +642,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -687,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -701,136 +686,136 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -838,13 +823,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -852,13 +837,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -882,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -893,13 +878,13 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -907,13 +892,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -924,10 +909,10 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -935,13 +920,13 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -952,10 +937,10 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -966,10 +951,10 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -977,13 +962,13 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -994,10 +979,10 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1005,13 +990,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1019,13 +1004,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1036,10 +1021,10 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1047,13 +1032,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/odds/BP- Loudoun 2025 2025 Betting Odds.xlsx
+++ b/odds/BP- Loudoun 2025 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="29">
   <si>
     <t>Record</t>
   </si>
@@ -69,10 +69,10 @@
     <t>11-4</t>
   </si>
   <si>
-    <t>8-6-1</t>
-  </si>
-  <si>
-    <t>7-7-1</t>
+    <t>8-7</t>
+  </si>
+  <si>
+    <t>7-8</t>
   </si>
   <si>
     <t>9-6</t>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>5-10</t>
-  </si>
-  <si>
-    <t>7-8</t>
   </si>
   <si>
     <t>100.0%</t>
@@ -491,10 +488,10 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -505,10 +502,10 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -519,10 +516,10 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -533,10 +530,10 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -547,10 +544,10 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -561,10 +558,10 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -575,10 +572,10 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -589,10 +586,10 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -603,10 +600,10 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -614,13 +611,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -631,10 +628,10 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -645,10 +642,10 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -672,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -686,10 +683,10 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -700,10 +697,10 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -714,10 +711,10 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -728,10 +725,10 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -742,10 +739,10 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -756,10 +753,10 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -770,10 +767,10 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -781,13 +778,13 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -798,10 +795,10 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -812,10 +809,10 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -826,10 +823,10 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -840,10 +837,10 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -867,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -881,10 +878,10 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -895,10 +892,10 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -909,10 +906,10 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -923,10 +920,10 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -937,10 +934,10 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -951,10 +948,10 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -962,13 +959,13 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -979,10 +976,10 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -993,10 +990,10 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1007,10 +1004,10 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1021,10 +1018,10 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1035,10 +1032,10 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
